--- a/LF/PreTAS/Nigeria/apri 2024/ng_lf_pretas_202404_2_participant.xlsx
+++ b/LF/PreTAS/Nigeria/apri 2024/ng_lf_pretas_202404_2_participant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\apri 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D55DF97-629E-4981-8692-91EBFA8A0058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F76752-DD14-4DDB-995F-DFEE486BC614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -93,15 +93,9 @@
     <t>p_cluster_name</t>
   </si>
   <si>
-    <t>Select the school</t>
-  </si>
-  <si>
     <t>p_cluster_id</t>
   </si>
   <si>
-    <t>Enter the school ID</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -294,24 +288,6 @@
     <t>04</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -321,16 +297,22 @@
     <t>Select your EU</t>
   </si>
   <si>
-    <t>p_eu</t>
-  </si>
-  <si>
-    <t>ng_lf_pretas_202404_2_participant</t>
-  </si>
-  <si>
-    <t>(Apr 2024) - 2. Nigeria - Pre TAS LF Participant Form</t>
-  </si>
-  <si>
-    <t>ng_pretas_p_202404</t>
+    <t>(Apr 2024) - 2. Nigeria - Pre TAS LF Participant Form V2</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202404_2_participant_v2</t>
+  </si>
+  <si>
+    <t>ng_pretas_p_202404_v2</t>
+  </si>
+  <si>
+    <t>Select the community</t>
+  </si>
+  <si>
+    <t>Enter the community ID</t>
+  </si>
+  <si>
+    <t>p_region</t>
   </si>
 </sst>
 </file>
@@ -861,7 +843,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -928,7 +910,7 @@
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="47.25">
       <c r="A2" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>15</v>
@@ -947,13 +929,13 @@
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D3" s="23"/>
       <c r="G3" s="23"/>
@@ -991,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D5" s="23"/>
       <c r="F5" s="26"/>
@@ -1009,10 +991,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D6" s="23"/>
       <c r="G6" s="23"/>
@@ -1026,10 +1008,10 @@
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -1038,7 +1020,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="9"/>
       <c r="I7" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1047,13 +1029,13 @@
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="31.5">
       <c r="A8" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14"/>
@@ -1069,10 +1051,10 @@
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -1081,7 +1063,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="9"/>
       <c r="I9" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1090,10 +1072,10 @@
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -1102,7 +1084,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="9"/>
       <c r="I10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1111,13 +1093,13 @@
     </row>
     <row r="11" spans="1:14" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -1133,20 +1115,20 @@
     </row>
     <row r="12" spans="1:14" s="7" customFormat="1">
       <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
@@ -1161,17 +1143,17 @@
         <v>14</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23" t="s">
@@ -1186,20 +1168,20 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="23"/>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>18</v>
@@ -1207,25 +1189,25 @@
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>18</v>
@@ -1236,41 +1218,41 @@
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" ht="31.5">
       <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="23"/>
       <c r="H16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:13" s="7" customFormat="1">
       <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="23"/>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
@@ -1287,20 +1269,20 @@
     </row>
     <row r="19" spans="1:13" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1311,11 +1293,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1327,7 +1309,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1336,204 +1318,138 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1">
       <c r="A3" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>87</v>
-      </c>
       <c r="C3" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="31" customFormat="1">
       <c r="A5" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="31" customFormat="1">
       <c r="A6" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="31" customFormat="1">
-      <c r="A7" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="31" customFormat="1">
-      <c r="A8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="31" customFormat="1">
-      <c r="A9" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="31" customFormat="1">
-      <c r="A10" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="31" customFormat="1">
-      <c r="A11" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="31" customFormat="1">
-      <c r="A12" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="31" customFormat="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C13" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1462,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1559,24 +1475,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
